--- a/Times-br.xlsx
+++ b/Times-br.xlsx
@@ -10,23 +10,20 @@
     <sheet name="Times-br" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Planilha1">'Times-br'!$A$1:$E$4</definedName>
-    <definedName name="primeira">'Times-br'!$A$1:$E$4</definedName>
-    <definedName name="Times">'Times-br'!$A$1:$E$4</definedName>
+    <definedName name="Planilha1">'Times-br'!$A$1:$E$21</definedName>
+    <definedName name="primeira">'Times-br'!$A$1:$E$21</definedName>
+    <definedName name="Times">'Times-br'!$A$1:$E$21</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Times</t>
   </si>
   <si>
-    <t>regionais</t>
-  </si>
-  <si>
     <t>nacionais</t>
   </si>
   <si>
@@ -36,20 +33,74 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Grêmio</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>Juventude</t>
+    <t>estaduais</t>
+  </si>
+  <si>
+    <t>GRÊMIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INTERNACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JUVENTUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PALMEIRAS</t>
+  </si>
+  <si>
+    <t>CORINTHIANS</t>
+  </si>
+  <si>
+    <t>SÃO PAULO</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>BRAGANTINO</t>
+  </si>
+  <si>
+    <t>FLAMENGO</t>
+  </si>
+  <si>
+    <t>BOTAFOGO</t>
+  </si>
+  <si>
+    <t>VASCO</t>
+  </si>
+  <si>
+    <t>FLUMINENSE</t>
+  </si>
+  <si>
+    <t>BAHIA</t>
+  </si>
+  <si>
+    <t>VITÓRIA</t>
+  </si>
+  <si>
+    <t>CUIABÁ</t>
+  </si>
+  <si>
+    <t>ATLÉTICO GO</t>
+  </si>
+  <si>
+    <t>CRICIÚMA</t>
+  </si>
+  <si>
+    <t>FORTALEZA</t>
+  </si>
+  <si>
+    <t>CRUZEIRO</t>
+  </si>
+  <si>
+    <t>ATLÉTICO MG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -163,6 +214,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -522,8 +579,13 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -569,20 +631,41 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E21" totalsRowShown="0">
+  <autoFilter ref="A1:E21"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Times"/>
-    <tableColumn id="2" name="regionais"/>
+    <tableColumn id="1" name="Times" dataDxfId="1"/>
+    <tableColumn id="2" name="estaduais"/>
     <tableColumn id="3" name="nacionais"/>
     <tableColumn id="4" name="continentais"/>
-    <tableColumn id="5" name="Total"/>
+    <tableColumn id="5" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -873,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -893,20 +976,20 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -918,12 +1001,13 @@
       <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E21" si="0">SUM(B2:D2)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -935,12 +1019,13 @@
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
@@ -952,8 +1037,315 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Times-br.xlsx
+++ b/Times-br.xlsx
@@ -54,9 +54,6 @@
     <t>SÃO PAULO</t>
   </si>
   <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
     <t>BRAGANTINO</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>ATLÉTICO MG</t>
+  </si>
+  <si>
+    <t>ATHLETICO PR</t>
   </si>
 </sst>
 </file>
@@ -959,7 +959,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1098,25 +1098,25 @@
     </row>
     <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>38</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>21</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>24</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>33</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>50</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>30</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>13</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>18</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>9</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>46</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>38</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>49</v>
